--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed3/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.298</v>
+        <v>-13.227</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.154</v>
+        <v>-12.041</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.948</v>
+        <v>5.254</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.168</v>
+        <v>-22.151</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.112</v>
+        <v>-21.531</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.306</v>
+        <v>16.315</v>
       </c>
     </row>
     <row r="11">
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.132</v>
+        <v>-12.512</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.544</v>
+        <v>-21.728</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.608</v>
+        <v>17.565</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.776</v>
+        <v>16.717</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>4.954000000000001</v>
+        <v>5.786000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.6</v>
+        <v>-12.758</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.722</v>
+        <v>16.616</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.252000000000001</v>
+        <v>5.072</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.242</v>
+        <v>-21.442</v>
       </c>
       <c r="B18" t="n">
-        <v>7.428</v>
+        <v>7.621</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.574</v>
+        <v>-11.477</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.472</v>
+        <v>-11.871</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>6.572</v>
+        <v>6.489999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.178</v>
+        <v>-12.016</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.826</v>
+        <v>-21.896</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.43</v>
+        <v>-13.419</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.502</v>
+        <v>5.42</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.806</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="30">
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.752</v>
+        <v>5.552</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.336</v>
+        <v>5.522</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.506</v>
+        <v>-13.16</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.842</v>
+        <v>16.613</v>
       </c>
     </row>
     <row r="33">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>7.08</v>
+        <v>7.304</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.572</v>
+        <v>16.521</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.344</v>
+        <v>-20.727</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.54</v>
+        <v>-13.055</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.35</v>
+        <v>8.627999999999998</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.404</v>
+        <v>-12.229</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.044</v>
+        <v>16.977</v>
       </c>
     </row>
     <row r="44">
@@ -1179,10 +1179,10 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>4.247999999999999</v>
+        <v>5.398</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.724</v>
+        <v>-13.257</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.762</v>
+        <v>-12.342</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>16.884</v>
+        <v>17.211</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>16.136</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="50">
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.656</v>
+        <v>4.975</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.608</v>
+        <v>16.448</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.95</v>
+        <v>16.605</v>
       </c>
     </row>
     <row r="52">
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.088</v>
+        <v>5.039</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.712</v>
+        <v>-21.806</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1386,13 +1386,13 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.616</v>
+        <v>-13.535</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.306</v>
+        <v>16.419</v>
       </c>
     </row>
     <row r="57">
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.974</v>
+        <v>-13.27</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.782</v>
+        <v>16.489</v>
       </c>
     </row>
     <row r="62">
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.48</v>
+        <v>-12.282</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.932</v>
+        <v>-21.521</v>
       </c>
       <c r="B68" t="n">
-        <v>5.008</v>
+        <v>5.802</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.148</v>
+        <v>17.319</v>
       </c>
     </row>
     <row r="70">
@@ -1647,7 +1647,7 @@
         <v>-7.44</v>
       </c>
       <c r="E71" t="n">
-        <v>17.608</v>
+        <v>17.156</v>
       </c>
     </row>
     <row r="72">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.542</v>
+        <v>-12.255</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.746</v>
+        <v>5.971</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.746</v>
+        <v>-20.372</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.01</v>
+        <v>-20.497</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.272</v>
+        <v>-20.812</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1783,12 +1783,12 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.292</v>
+        <v>17.044</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-20.38</v>
+        <v>-20.77</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.884</v>
+        <v>-21.851</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1817,12 +1817,12 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.69</v>
+        <v>16.812</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.044</v>
+        <v>-22.016</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.056</v>
+        <v>-21.682</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.122</v>
+        <v>4.853000000000001</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.08</v>
+        <v>5.121</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.412</v>
+        <v>-13.331</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1995,16 +1995,16 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>6.114</v>
+        <v>6.888</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.282</v>
+        <v>-11.026</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.108</v>
+        <v>17.614</v>
       </c>
     </row>
     <row r="93">
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.528</v>
+        <v>-10.379</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.784</v>
+        <v>-11.451</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.142</v>
+        <v>6.239999999999999</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.33</v>
+        <v>5.44</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.094</v>
+        <v>-21.073</v>
       </c>
       <c r="B101" t="n">
-        <v>5.51</v>
+        <v>6.294</v>
       </c>
       <c r="C101" t="n">
-        <v>-11.72</v>
+        <v>-12.194</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.688</v>
+        <v>-21.32</v>
       </c>
       <c r="B102" t="n">
-        <v>5.832000000000001</v>
+        <v>6.241000000000001</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
